--- a/Subjects/subject 500/audio_data.xlsx
+++ b/Subjects/subject 500/audio_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 500/audio_data.xlsx
+++ b/Subjects/subject 500/audio_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 500/audio_data.xlsx
+++ b/Subjects/subject 500/audio_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -468,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -500,7 +567,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -532,7 +599,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -596,7 +663,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -628,7 +695,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -660,7 +727,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -724,7 +791,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -756,7 +823,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -788,7 +855,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -820,7 +887,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -852,7 +919,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -884,7 +951,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -948,7 +1015,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -980,7 +1047,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1111,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1143,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1207,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1239,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1303,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1335,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1367,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1399,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1431,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1463,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1495,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1527,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1559,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1591,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1623,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1655,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1687,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1719,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1751,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1783,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1815,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1847,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1879,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1943,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1940,7 +2007,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1972,7 +2039,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2071,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2103,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2135,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2167,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2199,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2231,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2295,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2327,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2359,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2391,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2423,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2455,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2487,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2519,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2551,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2583,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2615,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2711,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2807,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2839,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2871,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2903,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2935,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2967,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2999,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2964,11 +3031,11 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 500/audio_data.xlsx
+++ b/Subjects/subject 500/audio_data.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 500/audio_data.xlsx
+++ b/Subjects/subject 500/audio_data.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 500/audio_data.xlsx
+++ b/Subjects/subject 500/audio_data.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 500/audio_data.xlsx
+++ b/Subjects/subject 500/audio_data.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 500/audio_data.xlsx
+++ b/Subjects/subject 500/audio_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -503,7 +436,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -535,7 +468,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -599,7 +532,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -631,7 +564,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -663,7 +596,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -727,7 +660,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -759,7 +692,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -791,7 +724,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -823,7 +756,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -855,7 +788,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -887,7 +820,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -919,7 +852,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -983,7 +916,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1015,7 +948,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1012,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1076,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1108,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1140,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1172,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1204,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1236,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1268,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1300,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1332,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1396,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1428,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1460,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1524,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1556,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1588,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1652,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1684,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1748,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1780,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1812,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1844,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1908,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2007,7 +1940,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2039,7 +1972,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2004,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2068,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2132,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2164,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2260,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2292,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2324,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2356,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2388,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2420,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2452,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2484,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2516,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2612,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2676,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2708,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2740,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2772,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2804,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2836,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2868,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2900,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2932,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -3031,11 +2964,11 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>